--- a/public/cohort/writeExcel/weggeschreve.xlsx
+++ b/public/cohort/writeExcel/weggeschreve.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <workbookProtection lockRevision="false" lockStructure="true" lockWindows="false"/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="beheer" sheetId="1" r:id="rId4"/>
-    <sheet name="geheim" sheetId="2" r:id="rId5"/>
+    <sheet name="sjabloon" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -16,30 +16,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
-  <si>
-    <t>schadenberg</t>
-  </si>
-  <si>
-    <t>me</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>geheimpje</t>
-  </si>
-  <si>
-    <t>voor</t>
-  </si>
-  <si>
-    <t>jou</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+  <si>
+    <t>statusCode</t>
+  </si>
+  <si>
+    <t>fouten?</t>
+  </si>
+  <si>
+    <t>vak</t>
+  </si>
+  <si>
+    <t>cjid</t>
+  </si>
+  <si>
+    <t>vid</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>somCode</t>
+  </si>
+  <si>
+    <t>periode</t>
+  </si>
+  <si>
+    <t>leerstofomschrijving</t>
+  </si>
+  <si>
+    <t>weging VD</t>
+  </si>
+  <si>
+    <t>soort toets</t>
+  </si>
+  <si>
+    <t>afwijkende hulpmiddelen / bijzonderheden</t>
+  </si>
+  <si>
+    <t>duur (min)</t>
+  </si>
+  <si>
+    <t>SE?</t>
+  </si>
+  <si>
+    <t>weging SE</t>
+  </si>
+  <si>
+    <t>herkans-baar?</t>
+  </si>
+  <si>
+    <t>verplichte SE-domeinen</t>
+  </si>
+  <si>
+    <t>niveau</t>
+  </si>
+  <si>
+    <t>kies…</t>
+  </si>
+  <si>
+    <t>startJaar</t>
+  </si>
+  <si>
+    <t>cid</t>
+  </si>
+  <si>
+    <t>eindJaar</t>
+  </si>
+  <si>
+    <t>vandaag</t>
+  </si>
+  <si>
+    <t>huidigStartjaar</t>
+  </si>
+  <si>
+    <t>huidigSchooljaar</t>
+  </si>
+  <si>
+    <t>positiePTA</t>
+  </si>
+  <si>
+    <t>groep</t>
   </si>
 </sst>
 </file>
@@ -69,90 +126,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border/>
-    <border>
-      <left style="thick">
-        <color rgb="00BBFF00"/>
-      </left>
-      <top style="thick">
-        <color rgb="00BBFF00"/>
-      </top>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="00BBFF00"/>
-      </left>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="00BBFF00"/>
-      </left>
-      <bottom style="thick">
-        <color rgb="00BBFF00"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thick">
-        <color rgb="00BBFF00"/>
-      </top>
-    </border>
-    <border>
-      <bottom style="thick">
-        <color rgb="00BBFF00"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thick">
-        <color rgb="00BBFF00"/>
-      </right>
-      <top style="thick">
-        <color rgb="00BBFF00"/>
-      </top>
-    </border>
-    <border>
-      <right style="thick">
-        <color rgb="00BBFF00"/>
-      </right>
-    </border>
-    <border>
-      <right style="thick">
-        <color rgb="00BBFF00"/>
-      </right>
-      <bottom style="thick">
-        <color rgb="00BBFF00"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -454,129 +435,746 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B2" sqref="B2:G8"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="0"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="0"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="0"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="0"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="0"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="0"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="0"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="0"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="0"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="0"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="0"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>verouderd PTA</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="O2"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="B4"/>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D4"/>
+      <c r="G4" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v> leerlaag 4 (schooljaar  - 1)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" s="2"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" s="2"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="2"/>
-      <c r="C6"/>
+      <c r="B5"/>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6"/>
       <c r="D6"/>
       <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="2"/>
-      <c r="C7"/>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6"/>
+      <c r="O6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7"/>
       <c r="D7"/>
       <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="8"/>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7"/>
+      <c r="O7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8"/>
+      <c r="O8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>1</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9"/>
+      <c r="O9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <f>NOW()</f>
+        <v>44294.439930556</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10"/>
+      <c r="O10" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11"/>
+      <c r="O11" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <f>B7-B11</f>
+        <v>-2020</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13"/>
+      <c r="G13" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <f>4+B11-B7</f>
+        <v>2024</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16"/>
+      <c r="G16" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v> leerlaag 5 (schooljaar 1 - 2)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="D17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="E17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G17" t="s">
         <v>7</v>
       </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17" t="s">
+        <v>15</v>
+      </c>
+      <c r="P17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18"/>
+      <c r="O18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P18"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19"/>
+      <c r="O19" t="s">
+        <v>18</v>
+      </c>
+      <c r="P19"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20"/>
+      <c r="O20" t="s">
+        <v>18</v>
+      </c>
+      <c r="P20"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21"/>
+      <c r="O21" t="s">
+        <v>18</v>
+      </c>
+      <c r="P21"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22"/>
+      <c r="O22" t="s">
+        <v>18</v>
+      </c>
+      <c r="P22"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23"/>
+      <c r="O23" t="s">
+        <v>18</v>
+      </c>
+      <c r="P23"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25"/>
+      <c r="G25" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
+      </c>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28"/>
+      <c r="G28" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v> leerlaag 6 (schooljaar 2 - 1)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" t="s">
+        <v>13</v>
+      </c>
+      <c r="N29" t="s">
+        <v>14</v>
+      </c>
+      <c r="O29" t="s">
+        <v>15</v>
+      </c>
+      <c r="P29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30" t="s">
+        <v>18</v>
+      </c>
+      <c r="N30"/>
+      <c r="O30" t="s">
+        <v>18</v>
+      </c>
+      <c r="P30"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31" t="s">
+        <v>18</v>
+      </c>
+      <c r="N31"/>
+      <c r="O31" t="s">
+        <v>18</v>
+      </c>
+      <c r="P31"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32" t="s">
+        <v>18</v>
+      </c>
+      <c r="N32"/>
+      <c r="O32" t="s">
+        <v>18</v>
+      </c>
+      <c r="P32"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33" t="s">
+        <v>18</v>
+      </c>
+      <c r="N33"/>
+      <c r="O33" t="s">
+        <v>18</v>
+      </c>
+      <c r="P33"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34" t="s">
+        <v>18</v>
+      </c>
+      <c r="N34"/>
+      <c r="O34" t="s">
+        <v>18</v>
+      </c>
+      <c r="P34"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="G35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35" t="s">
+        <v>18</v>
+      </c>
+      <c r="N35"/>
+      <c r="O35" t="s">
+        <v>18</v>
+      </c>
+      <c r="P35"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37"/>
+      <c r="G37" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
+      </c>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
